--- a/resources/NewCustomerdata.xlsx
+++ b/resources/NewCustomerdata.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\bankapp\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
     <t>Testone</t>
   </si>
   <si>
@@ -53,9 +46,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -68,9 +58,6 @@
     <t>PIN</t>
   </si>
   <si>
-    <t>Telephone Number</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -144,6 +131,15 @@
   </si>
   <si>
     <t>NSW</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>TelephoneNumber</t>
   </si>
 </sst>
 </file>
@@ -476,7 +472,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,51 +487,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>31340</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>214515</v>
@@ -544,27 +540,27 @@
         <v>31548794</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>36872</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>220120</v>
@@ -573,27 +569,27 @@
         <v>52188454</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>32631</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>121245</v>
@@ -602,27 +598,27 @@
         <v>52154578</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>32316</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>214587</v>
@@ -631,27 +627,27 @@
         <v>42154878</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>28786</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
       </c>
       <c r="G6">
         <v>234548</v>
@@ -660,27 +656,27 @@
         <v>32154878</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>32469</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>235688</v>
@@ -689,27 +685,27 @@
         <v>14548779</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>27324</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>236687</v>
@@ -718,7 +714,7 @@
         <v>12154574</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/resources/NewCustomerdata.xlsx
+++ b/resources/NewCustomerdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="1830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,10 +184,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,13 +473,13 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -533,7 +534,7 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>214515</v>
       </c>
       <c r="H2">
@@ -728,5 +729,6 @@
     <hyperlink ref="I8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>